--- a/ddl/input/table_design.xlsx
+++ b/ddl/input/table_design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuyanakagawa/Documents/python/wave_prediction/ddl/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C80223-8463-DE40-ACCC-BAEE0C1BAF30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E1B7B3-1C65-7443-B50D-05F5820DC144}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="960" windowWidth="27900" windowHeight="15740" xr2:uid="{B9111FEB-17F3-4B43-9EF0-B5DBFFF14F37}"/>
+    <workbookView xWindow="12320" yWindow="0" windowWidth="16480" windowHeight="18000" xr2:uid="{B9111FEB-17F3-4B43-9EF0-B5DBFFF14F37}"/>
   </bookViews>
   <sheets>
     <sheet name="table_design" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="33">
   <si>
     <t>TABLE</t>
     <phoneticPr fontId="1"/>
@@ -103,10 +103,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WAVE_INFO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -148,6 +144,30 @@
   </si>
   <si>
     <t>NOT NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WIND_INFO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WIND_DIRECTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WIND_SPEED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WAVE_HIGHT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WAVE_DIRECTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WAVE_PERIOD</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -215,7 +235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -224,6 +244,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,17 +562,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4537015-89C5-EB4C-B060-450E3375917D}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -572,7 +595,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -589,13 +612,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -612,13 +635,13 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -635,13 +658,13 @@
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -658,11 +681,11 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -679,11 +702,11 @@
         <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -700,11 +723,11 @@
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -718,14 +741,14 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -742,13 +765,13 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -765,13 +788,13 @@
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -788,13 +811,13 @@
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -808,14 +831,14 @@
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -829,14 +852,14 @@
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -850,14 +873,14 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -868,19 +891,17 @@
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -891,17 +912,124 @@
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ddl/input/table_design.xlsx
+++ b/ddl/input/table_design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuyanakagawa/Documents/python/wave_prediction/ddl/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E1B7B3-1C65-7443-B50D-05F5820DC144}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137D820F-5D5B-584A-963D-163A11CB0D23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12320" yWindow="0" windowWidth="16480" windowHeight="18000" xr2:uid="{B9111FEB-17F3-4B43-9EF0-B5DBFFF14F37}"/>
+    <workbookView xWindow="10160" yWindow="460" windowWidth="16480" windowHeight="16280" xr2:uid="{B9111FEB-17F3-4B43-9EF0-B5DBFFF14F37}"/>
   </bookViews>
   <sheets>
     <sheet name="table_design" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="34">
   <si>
     <t>TABLE</t>
     <phoneticPr fontId="1"/>
@@ -168,6 +168,10 @@
   </si>
   <si>
     <t>WAVE_PERIOD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -245,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -565,7 +569,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -837,9 +841,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
@@ -855,7 +857,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
@@ -876,7 +878,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
@@ -914,11 +916,11 @@
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
@@ -935,11 +937,11 @@
       <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
@@ -956,7 +958,7 @@
       <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -977,11 +979,11 @@
       <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
